--- a/biology/Zoologie/Hyène_des_cavernes/Hyène_des_cavernes.xlsx
+++ b/biology/Zoologie/Hyène_des_cavernes/Hyène_des_cavernes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hy%C3%A8ne_des_cavernes</t>
+          <t>Hyène_des_cavernes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crocuta crocuta spelaea
 La Hyène des cavernes (Crocuta crocuta spelaea) est une sous-espèce disparue de la Hyène tachetée (Crocuta crocuta) originaire d'Eurasie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hy%C3%A8ne_des_cavernes</t>
+          <t>Hyène_des_cavernes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Si elle avait été initialement décrite comme une espèce distincte de la Hyène tachetée en raison de grandes différences dans les extrémités antérieures et postérieures, l'analyse génétique n'indique pas de différence notable.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hy%C3%A8ne_des_cavernes</t>
+          <t>Hyène_des_cavernes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Extinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses populations ont commencé à décliner il y a 20 000 ans, pour finalement disparaitre il y a environ 11 000 ans.
 </t>
